--- a/Documents/Part_List.xlsx
+++ b/Documents/Part_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>Part Name</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>Arduino Mega 2560 R3</t>
-  </si>
-  <si>
-    <t>Price (USD)</t>
   </si>
   <si>
     <t>Mechanical Structure</t>
@@ -257,9 +254,6 @@
     <t>GTSR made</t>
   </si>
   <si>
-    <t>IR Transmitter Module</t>
-  </si>
-  <si>
     <t>Logic Gate</t>
   </si>
   <si>
@@ -318,6 +312,9 @@
   </si>
   <si>
     <t>M2.5 * 5mm and M2.5 * 10mm, Nylon</t>
+  </si>
+  <si>
+    <t>Electronics - IR Transmitter Module</t>
   </si>
 </sst>
 </file>
@@ -369,7 +366,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,22 +374,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -698,574 +756,568 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C28" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C48" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C56" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C53" t="s">
-        <v>77</v>
-      </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="B58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>92</v>
-      </c>
-      <c r="C55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1"/>
-    <hyperlink ref="D17" r:id="rId2"/>
-    <hyperlink ref="D18" r:id="rId3"/>
-    <hyperlink ref="D51" r:id="rId4"/>
-    <hyperlink ref="D50" r:id="rId5"/>
+    <hyperlink ref="C23" r:id="rId1"/>
+    <hyperlink ref="C19" r:id="rId2"/>
+    <hyperlink ref="C20" r:id="rId3"/>
+    <hyperlink ref="C54" r:id="rId4"/>
+    <hyperlink ref="C53" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId6"/>
